--- a/data/output/FV2304_FV2210/UTILMD/11163.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11163.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="234">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="234">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -815,6 +815,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U127" totalsRowShown="0">
+  <autoFilter ref="A1:U127"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,7 +1134,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6992,5 +7025,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11163.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11163.xlsx
@@ -1613,7 +1613,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="2"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4103,7 +4103,7 @@
         <v>220</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4257,7 +4257,7 @@
         <v>221</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4517,7 +4517,7 @@
         <v>220</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5081,7 +5081,7 @@
         <v>224</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5279,7 +5279,7 @@
         <v>224</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5535,7 +5535,7 @@
         <v>227</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -5981,7 +5981,7 @@
         <v>229</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6481,7 +6481,7 @@
         <v>231</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7027,7 +7027,7 @@
         <v>234</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N125" s="2"/>
